--- a/excel/gelper.xlsx
+++ b/excel/gelper.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\dinaspariwisatanew\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DD6AFCF-FED5-46ED-84B5-A9EEC6E1B242}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CB92F3B-2CC8-49DB-8319-11C36080FD2A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4800" yWindow="3760" windowWidth="14400" windowHeight="6000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4070" yWindow="840" windowWidth="14400" windowHeight="6000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="gelper" sheetId="1" r:id="rId1"/>
@@ -757,7 +757,7 @@
   </sheetPr>
   <dimension ref="A1:T54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A29" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="A4" sqref="A4:L4"/>
     </sheetView>
   </sheetViews>
